--- a/data/trans_orig/P04B3_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76FFC9A-2628-40B1-8EAC-FE9EF2662D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F27C2374-D9C4-4301-AB01-8EAFA333B768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DCA75B5-7335-49BD-9FEF-811E23E97CE5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64E30C33-490C-4B10-8046-B33A1928DD5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el verano como un problema en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,68%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>A veces</t>
@@ -104,28 +104,28 @@
     <t>11,38%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>Apenas</t>
@@ -134,697 +134,694 @@
     <t>17,97%</t>
   </si>
   <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>14,16%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>13,68%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>16,91%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
   </si>
   <si>
     <t>47,05%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B9E564-332B-492F-BA21-610C0BFCB888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7881485-7C75-4474-A26B-C880F404153C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1689,10 +1686,10 @@
         <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -1701,13 +1698,13 @@
         <v>111318</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1719,13 @@
         <v>69899</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>82</v>
@@ -1737,13 +1734,13 @@
         <v>89847</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>120</v>
@@ -1752,13 +1749,13 @@
         <v>159747</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1770,13 @@
         <v>175254</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -1788,13 +1785,13 @@
         <v>221596</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>336</v>
@@ -1803,13 +1800,13 @@
         <v>396850</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1862,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1874,13 @@
         <v>138786</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>183</v>
@@ -1892,13 +1889,13 @@
         <v>139791</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>323</v>
@@ -1907,13 +1904,13 @@
         <v>278577</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1925,13 @@
         <v>68427</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
@@ -1943,13 +1940,13 @@
         <v>60455</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -1958,13 +1955,13 @@
         <v>128882</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1976,13 @@
         <v>91976</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -1994,13 +1991,13 @@
         <v>102542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -2009,13 +2006,13 @@
         <v>194518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2027,13 @@
         <v>256867</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>426</v>
@@ -2045,13 +2042,13 @@
         <v>306721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>677</v>
@@ -2060,13 +2057,13 @@
         <v>563589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,7 +2119,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2134,13 +2131,13 @@
         <v>159114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>266</v>
@@ -2149,13 +2146,13 @@
         <v>192859</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -2164,13 +2161,13 @@
         <v>351973</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2182,13 @@
         <v>89031</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -2200,13 +2197,13 @@
         <v>104377</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
@@ -2215,13 +2212,13 @@
         <v>193408</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2233,13 @@
         <v>111481</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>171</v>
@@ -2251,13 +2248,13 @@
         <v>118162</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>272</v>
@@ -2266,13 +2263,13 @@
         <v>229644</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2284,13 @@
         <v>364363</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>536</v>
@@ -2302,13 +2299,13 @@
         <v>331143</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>859</v>
@@ -2317,13 +2314,13 @@
         <v>695506</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2376,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2388,13 @@
         <v>158717</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>244</v>
@@ -2406,13 +2403,13 @@
         <v>163383</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>423</v>
@@ -2421,13 +2418,13 @@
         <v>322100</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2439,13 @@
         <v>72051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>165</v>
@@ -2457,13 +2454,13 @@
         <v>96351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
@@ -2472,13 +2469,13 @@
         <v>168401</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2490,13 @@
         <v>113149</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>139</v>
@@ -2508,13 +2505,13 @@
         <v>85187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>257</v>
@@ -2523,13 +2520,13 @@
         <v>198336</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2541,13 @@
         <v>256241</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>453</v>
@@ -2559,13 +2556,13 @@
         <v>251471</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>740</v>
@@ -2574,13 +2571,13 @@
         <v>507712</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2633,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2645,13 @@
         <v>187590</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>384</v>
@@ -2663,13 +2660,13 @@
         <v>223039</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>662</v>
@@ -2678,13 +2675,13 @@
         <v>410629</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2696,13 @@
         <v>106292</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>243</v>
@@ -2714,13 +2711,13 @@
         <v>129135</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>401</v>
@@ -2729,13 +2726,13 @@
         <v>235426</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2747,13 @@
         <v>117888</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>262</v>
@@ -2765,13 +2762,13 @@
         <v>149700</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>422</v>
@@ -2780,13 +2777,13 @@
         <v>267588</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2798,13 @@
         <v>285985</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>819</v>
@@ -2816,13 +2813,13 @@
         <v>524764</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>1251</v>
@@ -2831,13 +2828,13 @@
         <v>810749</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2846,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2905,13 +2902,13 @@
         <v>872273</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>1240</v>
@@ -2920,13 +2917,13 @@
         <v>944238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>2133</v>
@@ -2935,13 +2932,13 @@
         <v>1816511</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2953,13 @@
         <v>430770</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>762</v>
@@ -2971,13 +2968,13 @@
         <v>495012</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>1219</v>
@@ -2986,13 +2983,13 @@
         <v>925782</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3004,13 @@
         <v>572251</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>825</v>
@@ -3022,13 +3019,13 @@
         <v>590477</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>1352</v>
@@ -3037,13 +3034,13 @@
         <v>1162728</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3055,13 @@
         <v>1508578</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>2535</v>
@@ -3073,13 +3070,13 @@
         <v>1803366</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>4031</v>
@@ -3088,13 +3085,13 @@
         <v>3311943</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3147,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B3_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F27C2374-D9C4-4301-AB01-8EAFA333B768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F7BC698-45F1-4F1E-99DB-0F0CD7373603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64E30C33-490C-4B10-8046-B33A1928DD5E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AA1C803F-1F85-419B-9C24-D023F4CB9CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="299">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el verano como un problema en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -65,763 +65,871 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>A menudo</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>A veces</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
   </si>
   <si>
     <t>Apenas</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,8 +1344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7881485-7C75-4474-A26B-C880F404153C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92868E2-9878-44F1-A7AF-8BF00E62FDA6}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1357,7 +1465,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>96984</v>
+        <v>84434</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1372,7 +1480,7 @@
         <v>55</v>
       </c>
       <c r="I4" s="7">
-        <v>96870</v>
+        <v>74807</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1387,7 +1495,7 @@
         <v>105</v>
       </c>
       <c r="N4" s="7">
-        <v>193854</v>
+        <v>159241</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1408,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>42969</v>
+        <v>45713</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1423,7 +1531,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>45378</v>
+        <v>42078</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1438,7 +1546,7 @@
         <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>88347</v>
+        <v>87792</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1459,7 +1567,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>67857</v>
+        <v>76376</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1474,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>45039</v>
+        <v>40976</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1489,7 +1597,7 @@
         <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>112896</v>
+        <v>117353</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1510,7 +1618,7 @@
         <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>169869</v>
+        <v>193464</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1525,7 +1633,7 @@
         <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>167670</v>
+        <v>155338</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1540,7 +1648,7 @@
         <v>168</v>
       </c>
       <c r="N7" s="7">
-        <v>337539</v>
+        <v>348802</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1561,7 +1669,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1576,7 +1684,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1591,7 +1699,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1614,7 +1722,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="7">
-        <v>131082</v>
+        <v>118088</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1629,7 +1737,7 @@
         <v>108</v>
       </c>
       <c r="I9" s="7">
-        <v>128296</v>
+        <v>163331</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1644,7 +1752,7 @@
         <v>203</v>
       </c>
       <c r="N9" s="7">
-        <v>259378</v>
+        <v>281418</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1665,7 +1773,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>52001</v>
+        <v>52090</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1680,31 +1788,31 @@
         <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>59317</v>
+        <v>55039</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>111318</v>
+        <v>107129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,46 +1824,46 @@
         <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>69899</v>
+        <v>71365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>82</v>
       </c>
       <c r="I11" s="7">
-        <v>89847</v>
+        <v>82849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>120</v>
       </c>
       <c r="N11" s="7">
-        <v>159747</v>
+        <v>154214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,46 +1875,46 @@
         <v>128</v>
       </c>
       <c r="D12" s="7">
-        <v>175254</v>
+        <v>181839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
       </c>
       <c r="I12" s="7">
-        <v>221596</v>
+        <v>210715</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>336</v>
       </c>
       <c r="N12" s="7">
-        <v>396850</v>
+        <v>392554</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,7 +1926,7 @@
         <v>301</v>
       </c>
       <c r="D13" s="7">
-        <v>428236</v>
+        <v>423382</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1833,7 +1941,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>499056</v>
+        <v>511934</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1848,7 +1956,7 @@
         <v>761</v>
       </c>
       <c r="N13" s="7">
-        <v>927292</v>
+        <v>935316</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1862,7 +1970,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1871,46 +1979,46 @@
         <v>140</v>
       </c>
       <c r="D14" s="7">
-        <v>138786</v>
+        <v>123918</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>183</v>
       </c>
       <c r="I14" s="7">
-        <v>139791</v>
+        <v>122379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>323</v>
       </c>
       <c r="N14" s="7">
-        <v>278577</v>
+        <v>246298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,46 +2030,46 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>68427</v>
+        <v>65342</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
       </c>
       <c r="I15" s="7">
-        <v>60455</v>
+        <v>55981</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
       </c>
       <c r="N15" s="7">
-        <v>128882</v>
+        <v>121323</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,46 +2081,46 @@
         <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>91976</v>
+        <v>89285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
       </c>
       <c r="I16" s="7">
-        <v>102542</v>
+        <v>95869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
       </c>
       <c r="N16" s="7">
-        <v>194518</v>
+        <v>185154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,46 +2132,46 @@
         <v>251</v>
       </c>
       <c r="D17" s="7">
-        <v>256867</v>
+        <v>256611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>426</v>
       </c>
       <c r="I17" s="7">
-        <v>306721</v>
+        <v>316882</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>677</v>
       </c>
       <c r="N17" s="7">
-        <v>563589</v>
+        <v>573493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,7 +2183,7 @@
         <v>544</v>
       </c>
       <c r="D18" s="7">
-        <v>556056</v>
+        <v>535157</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2090,7 +2198,7 @@
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>609509</v>
+        <v>591111</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2105,7 +2213,7 @@
         <v>1390</v>
       </c>
       <c r="N18" s="7">
-        <v>1165566</v>
+        <v>1126268</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2119,7 +2227,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2128,46 +2236,46 @@
         <v>151</v>
       </c>
       <c r="D19" s="7">
-        <v>159114</v>
+        <v>138972</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>266</v>
       </c>
       <c r="I19" s="7">
-        <v>192859</v>
+        <v>168107</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
       </c>
       <c r="N19" s="7">
-        <v>351973</v>
+        <v>307079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,40 +2287,40 @@
         <v>90</v>
       </c>
       <c r="D20" s="7">
-        <v>89031</v>
+        <v>86025</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
       </c>
       <c r="I20" s="7">
-        <v>104377</v>
+        <v>97127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
       </c>
       <c r="N20" s="7">
-        <v>193408</v>
+        <v>183152</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>139</v>
@@ -2230,7 +2338,7 @@
         <v>101</v>
       </c>
       <c r="D21" s="7">
-        <v>111481</v>
+        <v>105872</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
@@ -2245,7 +2353,7 @@
         <v>171</v>
       </c>
       <c r="I21" s="7">
-        <v>118162</v>
+        <v>109491</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>144</v>
@@ -2260,7 +2368,7 @@
         <v>272</v>
       </c>
       <c r="N21" s="7">
-        <v>229644</v>
+        <v>215364</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
@@ -2281,7 +2389,7 @@
         <v>323</v>
       </c>
       <c r="D22" s="7">
-        <v>364363</v>
+        <v>556917</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2296,7 +2404,7 @@
         <v>536</v>
       </c>
       <c r="I22" s="7">
-        <v>331143</v>
+        <v>337500</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
@@ -2311,16 +2419,16 @@
         <v>859</v>
       </c>
       <c r="N22" s="7">
-        <v>695506</v>
+        <v>894418</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2440,7 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2347,7 +2455,7 @@
         <v>1140</v>
       </c>
       <c r="I23" s="7">
-        <v>746541</v>
+        <v>712225</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2362,7 +2470,7 @@
         <v>1805</v>
       </c>
       <c r="N23" s="7">
-        <v>1470531</v>
+        <v>1600012</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2376,7 +2484,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2385,46 +2493,46 @@
         <v>179</v>
       </c>
       <c r="D24" s="7">
-        <v>158717</v>
+        <v>140317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>244</v>
       </c>
       <c r="I24" s="7">
-        <v>163383</v>
+        <v>143078</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>423</v>
       </c>
       <c r="N24" s="7">
-        <v>322100</v>
+        <v>283395</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,46 +2544,46 @@
         <v>79</v>
       </c>
       <c r="D25" s="7">
-        <v>72051</v>
+        <v>68115</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>165</v>
       </c>
       <c r="I25" s="7">
-        <v>96351</v>
+        <v>88984</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
       </c>
       <c r="N25" s="7">
-        <v>168401</v>
+        <v>157099</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,46 +2595,46 @@
         <v>118</v>
       </c>
       <c r="D26" s="7">
-        <v>113149</v>
+        <v>106141</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>139</v>
       </c>
       <c r="I26" s="7">
-        <v>85187</v>
+        <v>79016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>257</v>
       </c>
       <c r="N26" s="7">
-        <v>198336</v>
+        <v>185157</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,46 +2646,46 @@
         <v>287</v>
       </c>
       <c r="D27" s="7">
-        <v>256241</v>
+        <v>246662</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>453</v>
       </c>
       <c r="I27" s="7">
-        <v>251471</v>
+        <v>236206</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>740</v>
       </c>
       <c r="N27" s="7">
-        <v>507712</v>
+        <v>482868</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2697,7 @@
         <v>663</v>
       </c>
       <c r="D28" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2604,7 +2712,7 @@
         <v>1001</v>
       </c>
       <c r="I28" s="7">
-        <v>596392</v>
+        <v>547285</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2619,7 +2727,7 @@
         <v>1664</v>
       </c>
       <c r="N28" s="7">
-        <v>1196549</v>
+        <v>1108519</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2633,55 +2741,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7">
-        <v>187590</v>
+        <v>96257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="I29" s="7">
-        <v>223039</v>
+        <v>97062</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
-        <v>662</v>
+        <v>352</v>
       </c>
       <c r="N29" s="7">
-        <v>410629</v>
+        <v>193318</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,40 +2798,40 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="D30" s="7">
-        <v>106292</v>
+        <v>55105</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="I30" s="7">
-        <v>129135</v>
+        <v>55064</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="M30" s="7">
-        <v>401</v>
+        <v>193</v>
       </c>
       <c r="N30" s="7">
-        <v>235426</v>
+        <v>110170</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>208</v>
@@ -2741,10 +2849,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="D31" s="7">
-        <v>117888</v>
+        <v>59487</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>211</v>
@@ -2756,10 +2864,10 @@
         <v>213</v>
       </c>
       <c r="H31" s="7">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="I31" s="7">
-        <v>149700</v>
+        <v>58727</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>214</v>
@@ -2771,19 +2879,19 @@
         <v>216</v>
       </c>
       <c r="M31" s="7">
-        <v>422</v>
+        <v>199</v>
       </c>
       <c r="N31" s="7">
-        <v>267588</v>
+        <v>118214</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,49 +2900,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>432</v>
+        <v>243</v>
       </c>
       <c r="D32" s="7">
-        <v>285985</v>
+        <v>157316</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
-        <v>819</v>
+        <v>410</v>
       </c>
       <c r="I32" s="7">
-        <v>524764</v>
+        <v>397515</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
-        <v>1251</v>
+        <v>653</v>
       </c>
       <c r="N32" s="7">
-        <v>810749</v>
+        <v>554831</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,10 +2951,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2858,10 +2966,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2873,10 +2981,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N33" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2890,55 +2998,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>893</v>
+        <v>118</v>
       </c>
       <c r="D34" s="7">
-        <v>872273</v>
+        <v>69997</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
-        <v>1240</v>
+        <v>192</v>
       </c>
       <c r="I34" s="7">
-        <v>944238</v>
+        <v>95793</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
-        <v>2133</v>
+        <v>310</v>
       </c>
       <c r="N34" s="7">
-        <v>1816511</v>
+        <v>165790</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,49 +3055,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="D35" s="7">
-        <v>430770</v>
+        <v>44973</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
-        <v>762</v>
+        <v>130</v>
       </c>
       <c r="I35" s="7">
-        <v>495012</v>
+        <v>62480</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
-        <v>1219</v>
+        <v>208</v>
       </c>
       <c r="N35" s="7">
-        <v>925782</v>
+        <v>107453</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,49 +3106,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>527</v>
+        <v>73</v>
       </c>
       <c r="D36" s="7">
-        <v>572251</v>
+        <v>50605</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
-        <v>825</v>
+        <v>150</v>
       </c>
       <c r="I36" s="7">
-        <v>590477</v>
+        <v>76356</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
-        <v>1352</v>
+        <v>223</v>
       </c>
       <c r="N36" s="7">
-        <v>1162728</v>
+        <v>126960</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3157,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>1496</v>
+        <v>189</v>
       </c>
       <c r="D37" s="7">
-        <v>1508578</v>
+        <v>117185</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
-        <v>2535</v>
+        <v>409</v>
       </c>
       <c r="I37" s="7">
-        <v>1803366</v>
+        <v>191203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
-        <v>4031</v>
+        <v>598</v>
       </c>
       <c r="N37" s="7">
-        <v>3311943</v>
+        <v>308387</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3208,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>881</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N38" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>893</v>
+      </c>
+      <c r="D39" s="7">
+        <v>771982</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1240</v>
+      </c>
+      <c r="I39" s="7">
+        <v>864557</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2133</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1636539</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>457</v>
+      </c>
+      <c r="D40" s="7">
+        <v>417364</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="7">
+        <v>762</v>
+      </c>
+      <c r="I40" s="7">
+        <v>456754</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1219</v>
+      </c>
+      <c r="N40" s="7">
+        <v>874117</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>527</v>
+      </c>
+      <c r="D41" s="7">
+        <v>559132</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H41" s="7">
+        <v>825</v>
+      </c>
+      <c r="I41" s="7">
+        <v>543285</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1352</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1102417</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1496</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1709993</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2535</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1845359</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4031</v>
+      </c>
+      <c r="N42" s="7">
+        <v>3555352</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3373</v>
       </c>
-      <c r="D38" s="7">
-        <v>3383872</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3458471</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5362</v>
       </c>
-      <c r="I38" s="7">
-        <v>3833092</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3709954</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8735</v>
       </c>
-      <c r="N38" s="7">
-        <v>7216964</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>262</v>
+      <c r="N43" s="7">
+        <v>7168425</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
